--- a/input_small.xlsx
+++ b/input_small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natomanzolli/Documents/UC/PhD/Math models/Robust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720C1B1C-4D12-D24D-A70A-91964EC26A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E587EB6F-0EA8-C049-8349-CCC99C342440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{933CD496-2CE3-3447-B44F-7F4C3643C8B9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{933CD496-2CE3-3447-B44F-7F4C3643C8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Buses" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Bus (kWh)</t>
   </si>
@@ -73,12 +73,6 @@
     <t>percentage (%)</t>
   </si>
   <si>
-    <t>Time begin (h:m:s)</t>
-  </si>
-  <si>
-    <t>Time finish (h:m:s)</t>
-  </si>
-  <si>
     <t>Time begin (min)</t>
   </si>
   <si>
@@ -101,21 +95,6 @@
   </si>
   <si>
     <t>Average velocity (km/min)</t>
-  </si>
-  <si>
-    <t>Route</t>
-  </si>
-  <si>
-    <t>Freq. (min)</t>
-  </si>
-  <si>
-    <t>34T</t>
-  </si>
-  <si>
-    <t>19T</t>
-  </si>
-  <si>
-    <t>Total operation time</t>
   </si>
   <si>
     <t>Power</t>
@@ -175,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -190,6 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B7F405-04BD-9A44-923D-D0B1D0915781}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,41 +502,6 @@
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>348</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -564,17 +509,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC39ED6-C21E-184F-8399-91DE2859F8BB}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -583,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -599,70 +544,7 @@
       </c>
       <c r="I2">
         <f>SUM(A2:A9)</f>
-        <v>10.666666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f t="shared" ref="A3:A9" si="0">D3/$F$2</f>
         <v>1.3333333333333333</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +557,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -700,277 +582,62 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>CONVERT(E2,"hr","mn")</f>
-        <v>435</v>
+        <f>CONVERT(E2,"hr","min")</f>
+        <v>450</v>
       </c>
       <c r="B2">
-        <f>CONVERT(F2,"hr","mn")</f>
-        <v>1374.9999996000001</v>
+        <f>CONVERT(F2,"hr","min")</f>
+        <v>1080</v>
       </c>
       <c r="E2">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="F2">
-        <v>22.916666660000001</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.95486111111111116</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1">
-        <f>J2-I2</f>
-        <v>0.6527777777777779</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f t="shared" ref="A3:B9" si="0">CONVERT(E3,"hr","mn")</f>
-        <v>384.99999996000003</v>
-      </c>
-      <c r="B3">
-        <f t="shared" si="0"/>
-        <v>1429.9999997999998</v>
-      </c>
-      <c r="E3">
-        <v>6.4166666660000002</v>
-      </c>
-      <c r="F3">
-        <v>23.833333329999999</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="K3">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L9" si="1">J3-I3</f>
-        <v>0.72569444444444442</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>369.99999996000003</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>1294.999999998</v>
-      </c>
-      <c r="E4">
-        <v>6.1666666660000002</v>
-      </c>
-      <c r="F4">
-        <v>21.583333333300001</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.25694444444444448</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.89930555555555547</v>
-      </c>
-      <c r="K4">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.64236111111111094</v>
-      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1204.999999998</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>20.083333333300001</v>
-      </c>
-      <c r="H5">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.83680555555555547</v>
-      </c>
-      <c r="K5">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.58680555555555547</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>394.99999997999998</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1164.9999996000001</v>
-      </c>
-      <c r="E6">
-        <v>6.5833333329999997</v>
-      </c>
-      <c r="F6">
-        <v>19.416666660000001</v>
-      </c>
-      <c r="H6">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.27430555555555552</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.81597222222222221</v>
-      </c>
-      <c r="K6">
-        <v>40</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.54166666666666674</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>459.99999999600004</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1269.9999996000001</v>
-      </c>
-      <c r="E7">
-        <v>7.6666666666000003</v>
-      </c>
-      <c r="F7">
-        <v>21.166666660000001</v>
-      </c>
-      <c r="H7">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.30555555555555552</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="K7">
-        <v>15</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.57638888888888906</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1224.9999996000001</v>
-      </c>
-      <c r="E8">
-        <v>7.25</v>
-      </c>
-      <c r="F8">
-        <v>20.416666660000001</v>
-      </c>
-      <c r="H8">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.85069444444444453</v>
-      </c>
-      <c r="K8">
-        <v>30</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.54861111111111116</v>
-      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>1155</v>
-      </c>
-      <c r="E9">
-        <v>7.25</v>
-      </c>
-      <c r="F9">
-        <v>19.25</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -979,10 +646,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4C7943-5FF2-FD4F-90F7-B7009FED3143}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,34 +673,34 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>C2*$H$2</f>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
       <c r="C2">
         <f>D2+E2*F2*G2</f>
-        <v>0.88644164999999997</v>
+        <v>1.1015085199999999</v>
       </c>
       <c r="D2" s="4">
         <v>0.88644164999999997</v>
@@ -1042,12 +709,13 @@
         <v>0.21506686999999999</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <f>12/60</f>
         <v>0.2</v>
       </c>
       <c r="J2" s="2"/>
@@ -1058,200 +726,70 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f t="shared" ref="A3:A9" si="0">C3*$H$2</f>
-        <v>0.165080742</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C9" si="1">D3+E3*F3*G3</f>
-        <v>0.82540371000000001</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.82540371000000001</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.28635342000000003</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K9" si="2">E3*$H$2</f>
-        <v>5.7270684000000009E-2</v>
-      </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>0.170177568</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>0.85088783999999995</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.85088783999999995</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.20304881</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="4">
-        <f t="shared" si="2"/>
-        <v>4.0609762000000001E-2</v>
-      </c>
+      <c r="K4" s="4"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>0.16901043400000001</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>0.84505216999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.84505216999999999</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.22671529000000001</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="4">
-        <f t="shared" si="2"/>
-        <v>4.5343058000000006E-2</v>
-      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>0.16538582000000002</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>0.82692909999999997</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.82692909999999997</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.20944935000000001</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="4">
-        <f t="shared" si="2"/>
-        <v>4.1889870000000003E-2</v>
-      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>0.17104711</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>0.85523554999999996</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.85523554999999996</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.20254420000000001</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="4">
-        <f t="shared" si="2"/>
-        <v>4.0508840000000004E-2</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>0.17718269200000003</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>0.88591346000000004</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.88591346000000004</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.21537069</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="4">
-        <f t="shared" si="2"/>
-        <v>4.3074138000000005E-2</v>
-      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>0.17351449000000002</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>0.86757245000000005</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.86757245000000005</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.20575919000000001</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="4">
-        <f t="shared" si="2"/>
-        <v>4.1151838000000003E-2</v>
-      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1262,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA08AD2-6082-BB40-8338-54CCB16C7C31}">
   <dimension ref="A1:C1441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14257,7 +13795,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14267,19 +13805,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/input_small.xlsx
+++ b/input_small.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natomanzolli/Documents/UC/PhD/Math models/Robust/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natomanzolli/Documents/UC/PhD/Math models/Electric Bus Smart Charging/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E587EB6F-0EA8-C049-8349-CCC99C342440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D91D5E-141D-6541-83A3-1B0B8CCD9820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{933CD496-2CE3-3447-B44F-7F4C3643C8B9}"/>
+    <workbookView xWindow="-31520" yWindow="2060" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{933CD496-2CE3-3447-B44F-7F4C3643C8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Buses" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -169,7 +169,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4C7943-5FF2-FD4F-90F7-B7009FED3143}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +713,7 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2">
         <f>12/60</f>
         <v>0.2</v>
       </c>
@@ -801,7 +800,7 @@
   <dimension ref="A1:C1441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13792,10 +13791,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E9005A-C93F-D246-A03F-07B7DAAF214E}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13862,111 +13861,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f>$A$2*3</f>
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>6.5087999999999999</v>
-      </c>
-      <c r="C4">
-        <v>240</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f>$A$2*4</f>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>8.6783999999999999</v>
-      </c>
-      <c r="C5">
-        <v>320</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f>$A$2*5</f>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>10.847999999999999</v>
-      </c>
-      <c r="C6">
-        <v>400</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f>$A$2*6</f>
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>13.0176</v>
-      </c>
-      <c r="C7">
-        <v>480</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f>$A$2*7</f>
-        <v>9.3333333333333321</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>15.187200000000001</v>
-      </c>
-      <c r="C8">
-        <v>560</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f>$A$2*8</f>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>17.3568</v>
-      </c>
-      <c r="C9">
-        <v>640</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
